--- a/data/0086.xlsx
+++ b/data/0086.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1210"/>
+  <dimension ref="A1:I1211"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43050,6 +43050,41 @@
         <v>2000</v>
       </c>
     </row>
+    <row r="1211">
+      <c r="A1211" t="n">
+        <v>1581379200</v>
+      </c>
+      <c r="B1211" t="inlineStr">
+        <is>
+          <t>2020-02-11</t>
+        </is>
+      </c>
+      <c r="C1211" t="inlineStr">
+        <is>
+          <t>0086</t>
+        </is>
+      </c>
+      <c r="D1211" t="inlineStr">
+        <is>
+          <t>YGL</t>
+        </is>
+      </c>
+      <c r="E1211" t="n">
+        <v>0.135</v>
+      </c>
+      <c r="F1211" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="G1211" t="n">
+        <v>0.135</v>
+      </c>
+      <c r="H1211" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="I1211" t="n">
+        <v>2736300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0086.xlsx
+++ b/data/0086.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1211"/>
+  <dimension ref="A1:I1212"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43085,6 +43085,41 @@
         <v>2736300</v>
       </c>
     </row>
+    <row r="1212">
+      <c r="A1212" t="n">
+        <v>1581465600</v>
+      </c>
+      <c r="B1212" t="inlineStr">
+        <is>
+          <t>2020-02-12</t>
+        </is>
+      </c>
+      <c r="C1212" t="inlineStr">
+        <is>
+          <t>0086</t>
+        </is>
+      </c>
+      <c r="D1212" t="inlineStr">
+        <is>
+          <t>YGL</t>
+        </is>
+      </c>
+      <c r="E1212" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="F1212" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="G1212" t="n">
+        <v>0.135</v>
+      </c>
+      <c r="H1212" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="I1212" t="n">
+        <v>337900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0086.xlsx
+++ b/data/0086.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1212"/>
+  <dimension ref="A1:I1213"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43120,6 +43120,41 @@
         <v>337900</v>
       </c>
     </row>
+    <row r="1213">
+      <c r="A1213" t="n">
+        <v>1581552000</v>
+      </c>
+      <c r="B1213" t="inlineStr">
+        <is>
+          <t>2020-02-13</t>
+        </is>
+      </c>
+      <c r="C1213" t="inlineStr">
+        <is>
+          <t>0086</t>
+        </is>
+      </c>
+      <c r="D1213" t="inlineStr">
+        <is>
+          <t>YGL</t>
+        </is>
+      </c>
+      <c r="E1213" t="n">
+        <v>0.135</v>
+      </c>
+      <c r="F1213" t="n">
+        <v>0.145</v>
+      </c>
+      <c r="G1213" t="n">
+        <v>0.135</v>
+      </c>
+      <c r="H1213" t="n">
+        <v>0.145</v>
+      </c>
+      <c r="I1213" t="n">
+        <v>35000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0086.xlsx
+++ b/data/0086.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1213"/>
+  <dimension ref="A1:I1214"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43155,6 +43155,41 @@
         <v>35000</v>
       </c>
     </row>
+    <row r="1214">
+      <c r="A1214" t="n">
+        <v>1581638400</v>
+      </c>
+      <c r="B1214" t="inlineStr">
+        <is>
+          <t>2020-02-14</t>
+        </is>
+      </c>
+      <c r="C1214" t="inlineStr">
+        <is>
+          <t>0086</t>
+        </is>
+      </c>
+      <c r="D1214" t="inlineStr">
+        <is>
+          <t>YGL</t>
+        </is>
+      </c>
+      <c r="E1214" t="n">
+        <v>0.145</v>
+      </c>
+      <c r="F1214" t="n">
+        <v>0.165</v>
+      </c>
+      <c r="G1214" t="n">
+        <v>0.145</v>
+      </c>
+      <c r="H1214" t="n">
+        <v>0.165</v>
+      </c>
+      <c r="I1214" t="n">
+        <v>2540600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0086.xlsx
+++ b/data/0086.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1214"/>
+  <dimension ref="A1:I1215"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43190,6 +43190,41 @@
         <v>2540600</v>
       </c>
     </row>
+    <row r="1215">
+      <c r="A1215" t="n">
+        <v>1581897600</v>
+      </c>
+      <c r="B1215" t="inlineStr">
+        <is>
+          <t>2020-02-17</t>
+        </is>
+      </c>
+      <c r="C1215" t="inlineStr">
+        <is>
+          <t>0086</t>
+        </is>
+      </c>
+      <c r="D1215" t="inlineStr">
+        <is>
+          <t>YGL</t>
+        </is>
+      </c>
+      <c r="E1215" t="n">
+        <v>0.165</v>
+      </c>
+      <c r="F1215" t="n">
+        <v>0.165</v>
+      </c>
+      <c r="G1215" t="n">
+        <v>0.155</v>
+      </c>
+      <c r="H1215" t="n">
+        <v>0.155</v>
+      </c>
+      <c r="I1215" t="n">
+        <v>170000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0086.xlsx
+++ b/data/0086.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1215"/>
+  <dimension ref="A1:I1216"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43225,6 +43225,41 @@
         <v>170000</v>
       </c>
     </row>
+    <row r="1216">
+      <c r="A1216" t="n">
+        <v>1581984000</v>
+      </c>
+      <c r="B1216" t="inlineStr">
+        <is>
+          <t>2020-02-18</t>
+        </is>
+      </c>
+      <c r="C1216" t="inlineStr">
+        <is>
+          <t>0086</t>
+        </is>
+      </c>
+      <c r="D1216" t="inlineStr">
+        <is>
+          <t>YGL</t>
+        </is>
+      </c>
+      <c r="E1216" t="n">
+        <v>0.155</v>
+      </c>
+      <c r="F1216" t="n">
+        <v>0.155</v>
+      </c>
+      <c r="G1216" t="n">
+        <v>0.155</v>
+      </c>
+      <c r="H1216" t="n">
+        <v>0.155</v>
+      </c>
+      <c r="I1216" t="n">
+        <v>279300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0086.xlsx
+++ b/data/0086.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1216"/>
+  <dimension ref="A1:I1217"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43260,6 +43260,41 @@
         <v>279300</v>
       </c>
     </row>
+    <row r="1217">
+      <c r="A1217" t="n">
+        <v>1582070400</v>
+      </c>
+      <c r="B1217" t="inlineStr">
+        <is>
+          <t>2020-02-19</t>
+        </is>
+      </c>
+      <c r="C1217" t="inlineStr">
+        <is>
+          <t>0086</t>
+        </is>
+      </c>
+      <c r="D1217" t="inlineStr">
+        <is>
+          <t>YGL</t>
+        </is>
+      </c>
+      <c r="E1217" t="n">
+        <v>0.155</v>
+      </c>
+      <c r="F1217" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="G1217" t="n">
+        <v>0.135</v>
+      </c>
+      <c r="H1217" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="I1217" t="n">
+        <v>1729000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0086.xlsx
+++ b/data/0086.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1217"/>
+  <dimension ref="A1:I1218"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43295,6 +43295,41 @@
         <v>1729000</v>
       </c>
     </row>
+    <row r="1218">
+      <c r="A1218" t="n">
+        <v>1582156800</v>
+      </c>
+      <c r="B1218" t="inlineStr">
+        <is>
+          <t>2020-02-20</t>
+        </is>
+      </c>
+      <c r="C1218" t="inlineStr">
+        <is>
+          <t>0086</t>
+        </is>
+      </c>
+      <c r="D1218" t="inlineStr">
+        <is>
+          <t>YGL</t>
+        </is>
+      </c>
+      <c r="E1218" t="n">
+        <v>0.135</v>
+      </c>
+      <c r="F1218" t="n">
+        <v>0.145</v>
+      </c>
+      <c r="G1218" t="n">
+        <v>0.135</v>
+      </c>
+      <c r="H1218" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="I1218" t="n">
+        <v>430500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0086.xlsx
+++ b/data/0086.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1218"/>
+  <dimension ref="A1:I1219"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43330,6 +43330,41 @@
         <v>430500</v>
       </c>
     </row>
+    <row r="1219">
+      <c r="A1219" t="n">
+        <v>1582243200</v>
+      </c>
+      <c r="B1219" t="inlineStr">
+        <is>
+          <t>2020-02-21</t>
+        </is>
+      </c>
+      <c r="C1219" t="inlineStr">
+        <is>
+          <t>0086</t>
+        </is>
+      </c>
+      <c r="D1219" t="inlineStr">
+        <is>
+          <t>YGL</t>
+        </is>
+      </c>
+      <c r="E1219" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="F1219" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="G1219" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="H1219" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="I1219" t="n">
+        <v>2100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0086.xlsx
+++ b/data/0086.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1219"/>
+  <dimension ref="A1:I1220"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43365,6 +43365,41 @@
         <v>2100</v>
       </c>
     </row>
+    <row r="1220">
+      <c r="A1220" t="n">
+        <v>1582502400</v>
+      </c>
+      <c r="B1220" t="inlineStr">
+        <is>
+          <t>2020-02-24</t>
+        </is>
+      </c>
+      <c r="C1220" t="inlineStr">
+        <is>
+          <t>0086</t>
+        </is>
+      </c>
+      <c r="D1220" t="inlineStr">
+        <is>
+          <t>YGL</t>
+        </is>
+      </c>
+      <c r="E1220" t="n">
+        <v>0.135</v>
+      </c>
+      <c r="F1220" t="n">
+        <v>0.135</v>
+      </c>
+      <c r="G1220" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="H1220" t="n">
+        <v>0.135</v>
+      </c>
+      <c r="I1220" t="n">
+        <v>345500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0086.xlsx
+++ b/data/0086.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1220"/>
+  <dimension ref="A1:I1221"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43400,6 +43400,41 @@
         <v>345500</v>
       </c>
     </row>
+    <row r="1221">
+      <c r="A1221" t="n">
+        <v>1582588800</v>
+      </c>
+      <c r="B1221" t="inlineStr">
+        <is>
+          <t>2020-02-25</t>
+        </is>
+      </c>
+      <c r="C1221" t="inlineStr">
+        <is>
+          <t>0086</t>
+        </is>
+      </c>
+      <c r="D1221" t="inlineStr">
+        <is>
+          <t>YGL</t>
+        </is>
+      </c>
+      <c r="E1221" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="F1221" t="n">
+        <v>0.135</v>
+      </c>
+      <c r="G1221" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="H1221" t="n">
+        <v>0.135</v>
+      </c>
+      <c r="I1221" t="n">
+        <v>34500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0086.xlsx
+++ b/data/0086.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1221"/>
+  <dimension ref="A1:I1222"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43435,6 +43435,41 @@
         <v>34500</v>
       </c>
     </row>
+    <row r="1222">
+      <c r="A1222" t="n">
+        <v>1582675200</v>
+      </c>
+      <c r="B1222" t="inlineStr">
+        <is>
+          <t>2020-02-26</t>
+        </is>
+      </c>
+      <c r="C1222" t="inlineStr">
+        <is>
+          <t>0086</t>
+        </is>
+      </c>
+      <c r="D1222" t="inlineStr">
+        <is>
+          <t>YGL</t>
+        </is>
+      </c>
+      <c r="E1222" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="F1222" t="n">
+        <v>0.135</v>
+      </c>
+      <c r="G1222" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="H1222" t="n">
+        <v>0.135</v>
+      </c>
+      <c r="I1222" t="n">
+        <v>30000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0086.xlsx
+++ b/data/0086.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1222"/>
+  <dimension ref="A1:I1224"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43470,6 +43470,76 @@
         <v>30000</v>
       </c>
     </row>
+    <row r="1223">
+      <c r="A1223" t="n">
+        <v>1582761600</v>
+      </c>
+      <c r="B1223" t="inlineStr">
+        <is>
+          <t>2020-02-27</t>
+        </is>
+      </c>
+      <c r="C1223" t="inlineStr">
+        <is>
+          <t>0086</t>
+        </is>
+      </c>
+      <c r="D1223" t="inlineStr">
+        <is>
+          <t>YGL</t>
+        </is>
+      </c>
+      <c r="E1223" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="F1223" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="G1223" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="H1223" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="I1223" t="n">
+        <v>362100</v>
+      </c>
+    </row>
+    <row r="1224">
+      <c r="A1224" t="n">
+        <v>1582848000</v>
+      </c>
+      <c r="B1224" t="inlineStr">
+        <is>
+          <t>2020-02-28</t>
+        </is>
+      </c>
+      <c r="C1224" t="inlineStr">
+        <is>
+          <t>0086</t>
+        </is>
+      </c>
+      <c r="D1224" t="inlineStr">
+        <is>
+          <t>YGL</t>
+        </is>
+      </c>
+      <c r="E1224" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="F1224" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="G1224" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="H1224" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="I1224" t="n">
+        <v>273300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0086.xlsx
+++ b/data/0086.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1224"/>
+  <dimension ref="A1:I1226"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43540,6 +43540,76 @@
         <v>273300</v>
       </c>
     </row>
+    <row r="1225">
+      <c r="A1225" t="n">
+        <v>1583107200</v>
+      </c>
+      <c r="B1225" t="inlineStr">
+        <is>
+          <t>2020-03-02</t>
+        </is>
+      </c>
+      <c r="C1225" t="inlineStr">
+        <is>
+          <t>0086</t>
+        </is>
+      </c>
+      <c r="D1225" t="inlineStr">
+        <is>
+          <t>YGL</t>
+        </is>
+      </c>
+      <c r="E1225" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="F1225" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="G1225" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="H1225" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="I1225" t="n">
+        <v>25000</v>
+      </c>
+    </row>
+    <row r="1226">
+      <c r="A1226" t="n">
+        <v>1583193600</v>
+      </c>
+      <c r="B1226" t="inlineStr">
+        <is>
+          <t>2020-03-03</t>
+        </is>
+      </c>
+      <c r="C1226" t="inlineStr">
+        <is>
+          <t>0086</t>
+        </is>
+      </c>
+      <c r="D1226" t="inlineStr">
+        <is>
+          <t>YGL</t>
+        </is>
+      </c>
+      <c r="E1226" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="F1226" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="G1226" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="H1226" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="I1226" t="n">
+        <v>30000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0086.xlsx
+++ b/data/0086.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1226"/>
+  <dimension ref="A1:I1227"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43610,6 +43610,43 @@
         <v>30000</v>
       </c>
     </row>
+    <row r="1227">
+      <c r="A1227" t="n">
+        <v>1583280000</v>
+      </c>
+      <c r="B1227" t="inlineStr">
+        <is>
+          <t>2020-03-04</t>
+        </is>
+      </c>
+      <c r="C1227" t="inlineStr">
+        <is>
+          <t>0086</t>
+        </is>
+      </c>
+      <c r="D1227" t="inlineStr">
+        <is>
+          <t>YGL</t>
+        </is>
+      </c>
+      <c r="E1227" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="F1227" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="G1227" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="H1227" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="I1227" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0086.xlsx
+++ b/data/0086.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1227"/>
+  <dimension ref="A1:I1228"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43647,6 +43647,41 @@
         </is>
       </c>
     </row>
+    <row r="1228">
+      <c r="A1228" t="n">
+        <v>1583366400</v>
+      </c>
+      <c r="B1228" t="inlineStr">
+        <is>
+          <t>2020-03-05</t>
+        </is>
+      </c>
+      <c r="C1228" t="inlineStr">
+        <is>
+          <t>0086</t>
+        </is>
+      </c>
+      <c r="D1228" t="inlineStr">
+        <is>
+          <t>YGL</t>
+        </is>
+      </c>
+      <c r="E1228" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="F1228" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="G1228" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="H1228" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="I1228" t="n">
+        <v>2000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0086.xlsx
+++ b/data/0086.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1228"/>
+  <dimension ref="A1:I1229"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43682,6 +43682,43 @@
         <v>2000</v>
       </c>
     </row>
+    <row r="1229">
+      <c r="A1229" t="n">
+        <v>1583452800</v>
+      </c>
+      <c r="B1229" t="inlineStr">
+        <is>
+          <t>2020-03-06</t>
+        </is>
+      </c>
+      <c r="C1229" t="inlineStr">
+        <is>
+          <t>0086</t>
+        </is>
+      </c>
+      <c r="D1229" t="inlineStr">
+        <is>
+          <t>YGL</t>
+        </is>
+      </c>
+      <c r="E1229" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="F1229" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="G1229" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="H1229" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="I1229" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0086.xlsx
+++ b/data/0086.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1229"/>
+  <dimension ref="A1:I1230"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43719,6 +43719,41 @@
         </is>
       </c>
     </row>
+    <row r="1230">
+      <c r="A1230" t="n">
+        <v>1583712000</v>
+      </c>
+      <c r="B1230" t="inlineStr">
+        <is>
+          <t>2020-03-09</t>
+        </is>
+      </c>
+      <c r="C1230" t="inlineStr">
+        <is>
+          <t>0086</t>
+        </is>
+      </c>
+      <c r="D1230" t="inlineStr">
+        <is>
+          <t>YGL</t>
+        </is>
+      </c>
+      <c r="E1230" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="F1230" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="G1230" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="H1230" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="I1230" t="n">
+        <v>202000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0086.xlsx
+++ b/data/0086.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1230"/>
+  <dimension ref="A1:I1232"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43754,6 +43754,78 @@
         <v>202000</v>
       </c>
     </row>
+    <row r="1231">
+      <c r="A1231" t="n">
+        <v>1583798400</v>
+      </c>
+      <c r="B1231" t="inlineStr">
+        <is>
+          <t>2020-03-10</t>
+        </is>
+      </c>
+      <c r="C1231" t="inlineStr">
+        <is>
+          <t>0086</t>
+        </is>
+      </c>
+      <c r="D1231" t="inlineStr">
+        <is>
+          <t>YGL</t>
+        </is>
+      </c>
+      <c r="E1231" t="n">
+        <v>0.105</v>
+      </c>
+      <c r="F1231" t="n">
+        <v>0.105</v>
+      </c>
+      <c r="G1231" t="n">
+        <v>0.105</v>
+      </c>
+      <c r="H1231" t="n">
+        <v>0.105</v>
+      </c>
+      <c r="I1231" t="n">
+        <v>11000</v>
+      </c>
+    </row>
+    <row r="1232">
+      <c r="A1232" t="n">
+        <v>1583884800</v>
+      </c>
+      <c r="B1232" t="inlineStr">
+        <is>
+          <t>2020-03-11</t>
+        </is>
+      </c>
+      <c r="C1232" t="inlineStr">
+        <is>
+          <t>0086</t>
+        </is>
+      </c>
+      <c r="D1232" t="inlineStr">
+        <is>
+          <t>YGL</t>
+        </is>
+      </c>
+      <c r="E1232" t="n">
+        <v>0.105</v>
+      </c>
+      <c r="F1232" t="n">
+        <v>0.105</v>
+      </c>
+      <c r="G1232" t="n">
+        <v>0.105</v>
+      </c>
+      <c r="H1232" t="n">
+        <v>0.105</v>
+      </c>
+      <c r="I1232" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0086.xlsx
+++ b/data/0086.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1232"/>
+  <dimension ref="A1:I1233"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43826,6 +43826,41 @@
         </is>
       </c>
     </row>
+    <row r="1233">
+      <c r="A1233" t="n">
+        <v>1583971200</v>
+      </c>
+      <c r="B1233" t="inlineStr">
+        <is>
+          <t>2020-03-12</t>
+        </is>
+      </c>
+      <c r="C1233" t="inlineStr">
+        <is>
+          <t>0086</t>
+        </is>
+      </c>
+      <c r="D1233" t="inlineStr">
+        <is>
+          <t>YGL</t>
+        </is>
+      </c>
+      <c r="E1233" t="n">
+        <v>0.105</v>
+      </c>
+      <c r="F1233" t="n">
+        <v>0.105</v>
+      </c>
+      <c r="G1233" t="n">
+        <v>0.105</v>
+      </c>
+      <c r="H1233" t="n">
+        <v>0.105</v>
+      </c>
+      <c r="I1233" t="n">
+        <v>30000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0086.xlsx
+++ b/data/0086.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1233"/>
+  <dimension ref="A1:I1234"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43861,6 +43861,41 @@
         <v>30000</v>
       </c>
     </row>
+    <row r="1234">
+      <c r="A1234" t="n">
+        <v>1584057600</v>
+      </c>
+      <c r="B1234" t="inlineStr">
+        <is>
+          <t>2020-03-13</t>
+        </is>
+      </c>
+      <c r="C1234" t="inlineStr">
+        <is>
+          <t>0086</t>
+        </is>
+      </c>
+      <c r="D1234" t="inlineStr">
+        <is>
+          <t>YGL</t>
+        </is>
+      </c>
+      <c r="E1234" t="n">
+        <v>0.105</v>
+      </c>
+      <c r="F1234" t="n">
+        <v>0.105</v>
+      </c>
+      <c r="G1234" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="H1234" t="n">
+        <v>0.105</v>
+      </c>
+      <c r="I1234" t="n">
+        <v>179100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0086.xlsx
+++ b/data/0086.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2126"/>
+  <dimension ref="A1:I2127"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -75116,6 +75116,41 @@
         <v>179100</v>
       </c>
     </row>
+    <row r="2127">
+      <c r="A2127" t="n">
+        <v>1584316800</v>
+      </c>
+      <c r="B2127" t="inlineStr">
+        <is>
+          <t>2020-03-16</t>
+        </is>
+      </c>
+      <c r="C2127" t="inlineStr">
+        <is>
+          <t>0086</t>
+        </is>
+      </c>
+      <c r="D2127" t="inlineStr">
+        <is>
+          <t>YGL</t>
+        </is>
+      </c>
+      <c r="E2127" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="F2127" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="G2127" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="H2127" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="I2127" t="n">
+        <v>139900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0086.xlsx
+++ b/data/0086.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2127"/>
+  <dimension ref="A1:I2128"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -75151,6 +75151,41 @@
         <v>139900</v>
       </c>
     </row>
+    <row r="2128">
+      <c r="A2128" t="n">
+        <v>1584403200</v>
+      </c>
+      <c r="B2128" t="inlineStr">
+        <is>
+          <t>2020-03-17</t>
+        </is>
+      </c>
+      <c r="C2128" t="inlineStr">
+        <is>
+          <t>0086</t>
+        </is>
+      </c>
+      <c r="D2128" t="inlineStr">
+        <is>
+          <t>YGL</t>
+        </is>
+      </c>
+      <c r="E2128" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F2128" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="G2128" t="n">
+        <v>0.095</v>
+      </c>
+      <c r="H2128" t="n">
+        <v>0.095</v>
+      </c>
+      <c r="I2128" t="n">
+        <v>296400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0086.xlsx
+++ b/data/0086.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2128"/>
+  <dimension ref="A1:I2129"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -75186,6 +75186,41 @@
         <v>296400</v>
       </c>
     </row>
+    <row r="2129">
+      <c r="A2129" t="n">
+        <v>1584489600</v>
+      </c>
+      <c r="B2129" t="inlineStr">
+        <is>
+          <t>2020-03-18</t>
+        </is>
+      </c>
+      <c r="C2129" t="inlineStr">
+        <is>
+          <t>0086</t>
+        </is>
+      </c>
+      <c r="D2129" t="inlineStr">
+        <is>
+          <t>YGL</t>
+        </is>
+      </c>
+      <c r="E2129" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F2129" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="G2129" t="n">
+        <v>0.095</v>
+      </c>
+      <c r="H2129" t="n">
+        <v>0.095</v>
+      </c>
+      <c r="I2129" t="n">
+        <v>100000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0086.xlsx
+++ b/data/0086.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2129"/>
+  <dimension ref="A1:I2130"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -75221,6 +75221,41 @@
         <v>100000</v>
       </c>
     </row>
+    <row r="2130">
+      <c r="A2130" t="n">
+        <v>1584576000</v>
+      </c>
+      <c r="B2130" t="inlineStr">
+        <is>
+          <t>2020-03-19</t>
+        </is>
+      </c>
+      <c r="C2130" t="inlineStr">
+        <is>
+          <t>0086</t>
+        </is>
+      </c>
+      <c r="D2130" t="inlineStr">
+        <is>
+          <t>YGL</t>
+        </is>
+      </c>
+      <c r="E2130" t="n">
+        <v>0.095</v>
+      </c>
+      <c r="F2130" t="n">
+        <v>0.095</v>
+      </c>
+      <c r="G2130" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="H2130" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="I2130" t="n">
+        <v>120000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0086.xlsx
+++ b/data/0086.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2130"/>
+  <dimension ref="A1:I2131"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -75256,6 +75256,41 @@
         <v>120000</v>
       </c>
     </row>
+    <row r="2131">
+      <c r="A2131" t="n">
+        <v>1584662400</v>
+      </c>
+      <c r="B2131" t="inlineStr">
+        <is>
+          <t>2020-03-20</t>
+        </is>
+      </c>
+      <c r="C2131" t="inlineStr">
+        <is>
+          <t>0086</t>
+        </is>
+      </c>
+      <c r="D2131" t="inlineStr">
+        <is>
+          <t>YGL</t>
+        </is>
+      </c>
+      <c r="E2131" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="F2131" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="G2131" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="H2131" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="I2131" t="n">
+        <v>400000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0086.xlsx
+++ b/data/0086.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2131"/>
+  <dimension ref="A1:I2132"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -75291,6 +75291,41 @@
         <v>400000</v>
       </c>
     </row>
+    <row r="2132">
+      <c r="A2132" t="n">
+        <v>1584921600</v>
+      </c>
+      <c r="B2132" t="inlineStr">
+        <is>
+          <t>2020-03-23</t>
+        </is>
+      </c>
+      <c r="C2132" t="inlineStr">
+        <is>
+          <t>0086</t>
+        </is>
+      </c>
+      <c r="D2132" t="inlineStr">
+        <is>
+          <t>YGL</t>
+        </is>
+      </c>
+      <c r="E2132" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="F2132" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="G2132" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="H2132" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="I2132" t="n">
+        <v>270000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0086.xlsx
+++ b/data/0086.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2132"/>
+  <dimension ref="A1:I2133"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -75326,6 +75326,41 @@
         <v>270000</v>
       </c>
     </row>
+    <row r="2133">
+      <c r="A2133" t="n">
+        <v>1585008000</v>
+      </c>
+      <c r="B2133" t="inlineStr">
+        <is>
+          <t>2020-03-24</t>
+        </is>
+      </c>
+      <c r="C2133" t="inlineStr">
+        <is>
+          <t>0086</t>
+        </is>
+      </c>
+      <c r="D2133" t="inlineStr">
+        <is>
+          <t>YGL</t>
+        </is>
+      </c>
+      <c r="E2133" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="F2133" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="G2133" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="H2133" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="I2133" t="n">
+        <v>126100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0086.xlsx
+++ b/data/0086.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2133"/>
+  <dimension ref="A1:I2134"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -75361,6 +75361,41 @@
         <v>126100</v>
       </c>
     </row>
+    <row r="2134">
+      <c r="A2134" t="n">
+        <v>1585094400</v>
+      </c>
+      <c r="B2134" t="inlineStr">
+        <is>
+          <t>2020-03-25</t>
+        </is>
+      </c>
+      <c r="C2134" t="inlineStr">
+        <is>
+          <t>0086</t>
+        </is>
+      </c>
+      <c r="D2134" t="inlineStr">
+        <is>
+          <t>YGL</t>
+        </is>
+      </c>
+      <c r="E2134" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F2134" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="G2134" t="n">
+        <v>0.095</v>
+      </c>
+      <c r="H2134" t="n">
+        <v>0.095</v>
+      </c>
+      <c r="I2134" t="n">
+        <v>308000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0086.xlsx
+++ b/data/0086.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2134"/>
+  <dimension ref="A1:I2135"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -75396,6 +75396,41 @@
         <v>308000</v>
       </c>
     </row>
+    <row r="2135">
+      <c r="A2135" t="n">
+        <v>1585180800</v>
+      </c>
+      <c r="B2135" t="inlineStr">
+        <is>
+          <t>2020-03-26</t>
+        </is>
+      </c>
+      <c r="C2135" t="inlineStr">
+        <is>
+          <t>0086</t>
+        </is>
+      </c>
+      <c r="D2135" t="inlineStr">
+        <is>
+          <t>YGL</t>
+        </is>
+      </c>
+      <c r="E2135" t="n">
+        <v>0.095</v>
+      </c>
+      <c r="F2135" t="n">
+        <v>0.095</v>
+      </c>
+      <c r="G2135" t="n">
+        <v>0.095</v>
+      </c>
+      <c r="H2135" t="n">
+        <v>0.095</v>
+      </c>
+      <c r="I2135" t="n">
+        <v>140000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0086.xlsx
+++ b/data/0086.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2135"/>
+  <dimension ref="A1:I2136"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -75431,6 +75431,41 @@
         <v>140000</v>
       </c>
     </row>
+    <row r="2136">
+      <c r="A2136" t="n">
+        <v>1585267200</v>
+      </c>
+      <c r="B2136" t="inlineStr">
+        <is>
+          <t>2020-03-27</t>
+        </is>
+      </c>
+      <c r="C2136" t="inlineStr">
+        <is>
+          <t>0086</t>
+        </is>
+      </c>
+      <c r="D2136" t="inlineStr">
+        <is>
+          <t>YGL</t>
+        </is>
+      </c>
+      <c r="E2136" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F2136" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="G2136" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="H2136" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="I2136" t="n">
+        <v>100000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0086.xlsx
+++ b/data/0086.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2136"/>
+  <dimension ref="A1:I2137"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -75466,6 +75466,41 @@
         <v>100000</v>
       </c>
     </row>
+    <row r="2137">
+      <c r="A2137" t="n">
+        <v>1585526400</v>
+      </c>
+      <c r="B2137" t="inlineStr">
+        <is>
+          <t>2020-03-30</t>
+        </is>
+      </c>
+      <c r="C2137" t="inlineStr">
+        <is>
+          <t>0086</t>
+        </is>
+      </c>
+      <c r="D2137" t="inlineStr">
+        <is>
+          <t>YGL</t>
+        </is>
+      </c>
+      <c r="E2137" t="n">
+        <v>0.095</v>
+      </c>
+      <c r="F2137" t="n">
+        <v>0.095</v>
+      </c>
+      <c r="G2137" t="n">
+        <v>0.095</v>
+      </c>
+      <c r="H2137" t="n">
+        <v>0.095</v>
+      </c>
+      <c r="I2137" t="n">
+        <v>20000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0086.xlsx
+++ b/data/0086.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2137"/>
+  <dimension ref="A1:I2138"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -75501,6 +75501,41 @@
         <v>20000</v>
       </c>
     </row>
+    <row r="2138">
+      <c r="A2138" t="n">
+        <v>1585612800</v>
+      </c>
+      <c r="B2138" t="inlineStr">
+        <is>
+          <t>2020-03-31</t>
+        </is>
+      </c>
+      <c r="C2138" t="inlineStr">
+        <is>
+          <t>0086</t>
+        </is>
+      </c>
+      <c r="D2138" t="inlineStr">
+        <is>
+          <t>YGL</t>
+        </is>
+      </c>
+      <c r="E2138" t="n">
+        <v>0.095</v>
+      </c>
+      <c r="F2138" t="n">
+        <v>0.095</v>
+      </c>
+      <c r="G2138" t="n">
+        <v>0.095</v>
+      </c>
+      <c r="H2138" t="n">
+        <v>0.095</v>
+      </c>
+      <c r="I2138" t="n">
+        <v>10000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0086.xlsx
+++ b/data/0086.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2138"/>
+  <dimension ref="A1:I2139"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -75536,6 +75536,41 @@
         <v>10000</v>
       </c>
     </row>
+    <row r="2139">
+      <c r="A2139" t="n">
+        <v>1585699200</v>
+      </c>
+      <c r="B2139" t="inlineStr">
+        <is>
+          <t>2020-04-01</t>
+        </is>
+      </c>
+      <c r="C2139" t="inlineStr">
+        <is>
+          <t>0086</t>
+        </is>
+      </c>
+      <c r="D2139" t="inlineStr">
+        <is>
+          <t>YGL</t>
+        </is>
+      </c>
+      <c r="E2139" t="n">
+        <v>0.095</v>
+      </c>
+      <c r="F2139" t="n">
+        <v>0.095</v>
+      </c>
+      <c r="G2139" t="n">
+        <v>0.095</v>
+      </c>
+      <c r="H2139" t="n">
+        <v>0.095</v>
+      </c>
+      <c r="I2139" t="n">
+        <v>80000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0086.xlsx
+++ b/data/0086.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2139"/>
+  <dimension ref="A1:I2140"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -75571,6 +75571,41 @@
         <v>80000</v>
       </c>
     </row>
+    <row r="2140">
+      <c r="A2140" t="n">
+        <v>1585785600</v>
+      </c>
+      <c r="B2140" t="inlineStr">
+        <is>
+          <t>2020-04-02</t>
+        </is>
+      </c>
+      <c r="C2140" t="inlineStr">
+        <is>
+          <t>0086</t>
+        </is>
+      </c>
+      <c r="D2140" t="inlineStr">
+        <is>
+          <t>YGL</t>
+        </is>
+      </c>
+      <c r="E2140" t="n">
+        <v>0.095</v>
+      </c>
+      <c r="F2140" t="n">
+        <v>0.095</v>
+      </c>
+      <c r="G2140" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="H2140" t="n">
+        <v>0.095</v>
+      </c>
+      <c r="I2140" t="n">
+        <v>130000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0086.xlsx
+++ b/data/0086.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2140"/>
+  <dimension ref="A1:I2141"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -75606,6 +75606,43 @@
         <v>130000</v>
       </c>
     </row>
+    <row r="2141">
+      <c r="A2141" t="n">
+        <v>1585872000</v>
+      </c>
+      <c r="B2141" t="inlineStr">
+        <is>
+          <t>2020-04-03</t>
+        </is>
+      </c>
+      <c r="C2141" t="inlineStr">
+        <is>
+          <t>0086</t>
+        </is>
+      </c>
+      <c r="D2141" t="inlineStr">
+        <is>
+          <t>YGL</t>
+        </is>
+      </c>
+      <c r="E2141" t="n">
+        <v>0.095</v>
+      </c>
+      <c r="F2141" t="n">
+        <v>0.095</v>
+      </c>
+      <c r="G2141" t="n">
+        <v>0.095</v>
+      </c>
+      <c r="H2141" t="n">
+        <v>0.095</v>
+      </c>
+      <c r="I2141" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0086.xlsx
+++ b/data/0086.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2944"/>
+  <dimension ref="A1:I2945"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -103748,6 +103748,41 @@
         </is>
       </c>
     </row>
+    <row r="2945">
+      <c r="A2945" t="n">
+        <v>1586131200</v>
+      </c>
+      <c r="B2945" t="inlineStr">
+        <is>
+          <t>2020-04-06</t>
+        </is>
+      </c>
+      <c r="C2945" t="inlineStr">
+        <is>
+          <t>0086</t>
+        </is>
+      </c>
+      <c r="D2945" t="inlineStr">
+        <is>
+          <t>YGL</t>
+        </is>
+      </c>
+      <c r="E2945" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="F2945" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="G2945" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="H2945" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="I2945" t="n">
+        <v>50000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0086.xlsx
+++ b/data/0086.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2945"/>
+  <dimension ref="A1:I2946"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -103783,6 +103783,41 @@
         <v>50000</v>
       </c>
     </row>
+    <row r="2946">
+      <c r="A2946" t="n">
+        <v>1586217600</v>
+      </c>
+      <c r="B2946" t="inlineStr">
+        <is>
+          <t>2020-04-07</t>
+        </is>
+      </c>
+      <c r="C2946" t="inlineStr">
+        <is>
+          <t>0086</t>
+        </is>
+      </c>
+      <c r="D2946" t="inlineStr">
+        <is>
+          <t>YGL</t>
+        </is>
+      </c>
+      <c r="E2946" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="F2946" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="G2946" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="H2946" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="I2946" t="n">
+        <v>62000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0086.xlsx
+++ b/data/0086.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2946"/>
+  <dimension ref="A1:I2947"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -103818,6 +103818,41 @@
         <v>62000</v>
       </c>
     </row>
+    <row r="2947">
+      <c r="A2947" t="n">
+        <v>1586304000</v>
+      </c>
+      <c r="B2947" t="inlineStr">
+        <is>
+          <t>2020-04-08</t>
+        </is>
+      </c>
+      <c r="C2947" t="inlineStr">
+        <is>
+          <t>0086</t>
+        </is>
+      </c>
+      <c r="D2947" t="inlineStr">
+        <is>
+          <t>YGL</t>
+        </is>
+      </c>
+      <c r="E2947" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F2947" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="G2947" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="H2947" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="I2947" t="n">
+        <v>125000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0086.xlsx
+++ b/data/0086.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2947"/>
+  <dimension ref="A1:I2948"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -103853,6 +103853,41 @@
         <v>125000</v>
       </c>
     </row>
+    <row r="2948">
+      <c r="A2948" t="n">
+        <v>1586390400</v>
+      </c>
+      <c r="B2948" t="inlineStr">
+        <is>
+          <t>2020-04-09</t>
+        </is>
+      </c>
+      <c r="C2948" t="inlineStr">
+        <is>
+          <t>0086</t>
+        </is>
+      </c>
+      <c r="D2948" t="inlineStr">
+        <is>
+          <t>YGL</t>
+        </is>
+      </c>
+      <c r="E2948" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F2948" t="n">
+        <v>0.105</v>
+      </c>
+      <c r="G2948" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="H2948" t="n">
+        <v>0.105</v>
+      </c>
+      <c r="I2948" t="n">
+        <v>82200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0086.xlsx
+++ b/data/0086.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2948"/>
+  <dimension ref="A1:I2949"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -103888,6 +103888,43 @@
         <v>82200</v>
       </c>
     </row>
+    <row r="2949">
+      <c r="A2949" t="n">
+        <v>1586476800</v>
+      </c>
+      <c r="B2949" t="inlineStr">
+        <is>
+          <t>2020-04-10</t>
+        </is>
+      </c>
+      <c r="C2949" t="inlineStr">
+        <is>
+          <t>0086</t>
+        </is>
+      </c>
+      <c r="D2949" t="inlineStr">
+        <is>
+          <t>YGL</t>
+        </is>
+      </c>
+      <c r="E2949" t="n">
+        <v>0.105</v>
+      </c>
+      <c r="F2949" t="n">
+        <v>0.105</v>
+      </c>
+      <c r="G2949" t="n">
+        <v>0.105</v>
+      </c>
+      <c r="H2949" t="n">
+        <v>0.105</v>
+      </c>
+      <c r="I2949" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0086.xlsx
+++ b/data/0086.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2949"/>
+  <dimension ref="A1:I2950"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -103925,6 +103925,41 @@
         </is>
       </c>
     </row>
+    <row r="2950">
+      <c r="A2950" t="n">
+        <v>1586736000</v>
+      </c>
+      <c r="B2950" t="inlineStr">
+        <is>
+          <t>2020-04-13</t>
+        </is>
+      </c>
+      <c r="C2950" t="inlineStr">
+        <is>
+          <t>0086</t>
+        </is>
+      </c>
+      <c r="D2950" t="inlineStr">
+        <is>
+          <t>YGL</t>
+        </is>
+      </c>
+      <c r="E2950" t="n">
+        <v>0.095</v>
+      </c>
+      <c r="F2950" t="n">
+        <v>0.105</v>
+      </c>
+      <c r="G2950" t="n">
+        <v>0.095</v>
+      </c>
+      <c r="H2950" t="n">
+        <v>0.105</v>
+      </c>
+      <c r="I2950" t="n">
+        <v>30100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0086.xlsx
+++ b/data/0086.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2950"/>
+  <dimension ref="A1:I2951"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -103960,6 +103960,41 @@
         <v>30100</v>
       </c>
     </row>
+    <row r="2951">
+      <c r="A2951" t="n">
+        <v>1586822400</v>
+      </c>
+      <c r="B2951" t="inlineStr">
+        <is>
+          <t>2020-04-14</t>
+        </is>
+      </c>
+      <c r="C2951" t="inlineStr">
+        <is>
+          <t>0086</t>
+        </is>
+      </c>
+      <c r="D2951" t="inlineStr">
+        <is>
+          <t>YGL</t>
+        </is>
+      </c>
+      <c r="E2951" t="n">
+        <v>0.105</v>
+      </c>
+      <c r="F2951" t="n">
+        <v>0.105</v>
+      </c>
+      <c r="G2951" t="n">
+        <v>0.095</v>
+      </c>
+      <c r="H2951" t="n">
+        <v>0.095</v>
+      </c>
+      <c r="I2951" t="n">
+        <v>10100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0086.xlsx
+++ b/data/0086.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2951"/>
+  <dimension ref="A1:I2952"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -103995,6 +103995,41 @@
         <v>10100</v>
       </c>
     </row>
+    <row r="2952">
+      <c r="A2952" t="n">
+        <v>1586908800</v>
+      </c>
+      <c r="B2952" t="inlineStr">
+        <is>
+          <t>2020-04-15</t>
+        </is>
+      </c>
+      <c r="C2952" t="inlineStr">
+        <is>
+          <t>0086</t>
+        </is>
+      </c>
+      <c r="D2952" t="inlineStr">
+        <is>
+          <t>YGL</t>
+        </is>
+      </c>
+      <c r="E2952" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F2952" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="G2952" t="n">
+        <v>0.095</v>
+      </c>
+      <c r="H2952" t="n">
+        <v>0.095</v>
+      </c>
+      <c r="I2952" t="n">
+        <v>83100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0086.xlsx
+++ b/data/0086.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2952"/>
+  <dimension ref="A1:I2953"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -104030,6 +104030,41 @@
         <v>83100</v>
       </c>
     </row>
+    <row r="2953">
+      <c r="A2953" t="n">
+        <v>1586995200</v>
+      </c>
+      <c r="B2953" t="inlineStr">
+        <is>
+          <t>2020-04-16</t>
+        </is>
+      </c>
+      <c r="C2953" t="inlineStr">
+        <is>
+          <t>0086</t>
+        </is>
+      </c>
+      <c r="D2953" t="inlineStr">
+        <is>
+          <t>YGL</t>
+        </is>
+      </c>
+      <c r="E2953" t="n">
+        <v>0.095</v>
+      </c>
+      <c r="F2953" t="n">
+        <v>0.105</v>
+      </c>
+      <c r="G2953" t="n">
+        <v>0.095</v>
+      </c>
+      <c r="H2953" t="n">
+        <v>0.105</v>
+      </c>
+      <c r="I2953" t="n">
+        <v>141000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0086.xlsx
+++ b/data/0086.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2953"/>
+  <dimension ref="A1:I2954"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -104065,6 +104065,43 @@
         <v>141000</v>
       </c>
     </row>
+    <row r="2954">
+      <c r="A2954" t="n">
+        <v>1587081600</v>
+      </c>
+      <c r="B2954" t="inlineStr">
+        <is>
+          <t>2020-04-17</t>
+        </is>
+      </c>
+      <c r="C2954" t="inlineStr">
+        <is>
+          <t>0086</t>
+        </is>
+      </c>
+      <c r="D2954" t="inlineStr">
+        <is>
+          <t>YGL</t>
+        </is>
+      </c>
+      <c r="E2954" t="n">
+        <v>0.105</v>
+      </c>
+      <c r="F2954" t="n">
+        <v>0.105</v>
+      </c>
+      <c r="G2954" t="n">
+        <v>0.105</v>
+      </c>
+      <c r="H2954" t="n">
+        <v>0.105</v>
+      </c>
+      <c r="I2954" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0086.xlsx
+++ b/data/0086.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2954"/>
+  <dimension ref="A1:I2956"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -104102,6 +104102,76 @@
         </is>
       </c>
     </row>
+    <row r="2955">
+      <c r="A2955" t="n">
+        <v>1587340800</v>
+      </c>
+      <c r="B2955" t="inlineStr">
+        <is>
+          <t>2020-04-20</t>
+        </is>
+      </c>
+      <c r="C2955" t="inlineStr">
+        <is>
+          <t>0086</t>
+        </is>
+      </c>
+      <c r="D2955" t="inlineStr">
+        <is>
+          <t>YGL</t>
+        </is>
+      </c>
+      <c r="E2955" t="n">
+        <v>0.105</v>
+      </c>
+      <c r="F2955" t="n">
+        <v>0.105</v>
+      </c>
+      <c r="G2955" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="H2955" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="I2955" t="n">
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="2956">
+      <c r="A2956" t="n">
+        <v>1587427200</v>
+      </c>
+      <c r="B2956" t="inlineStr">
+        <is>
+          <t>2020-04-21</t>
+        </is>
+      </c>
+      <c r="C2956" t="inlineStr">
+        <is>
+          <t>0086</t>
+        </is>
+      </c>
+      <c r="D2956" t="inlineStr">
+        <is>
+          <t>YGL</t>
+        </is>
+      </c>
+      <c r="E2956" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F2956" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="G2956" t="n">
+        <v>0.095</v>
+      </c>
+      <c r="H2956" t="n">
+        <v>0.095</v>
+      </c>
+      <c r="I2956" t="n">
+        <v>90000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0086.xlsx
+++ b/data/0086.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2956"/>
+  <dimension ref="A1:I2957"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -104172,6 +104172,41 @@
         <v>90000</v>
       </c>
     </row>
+    <row r="2957">
+      <c r="A2957" t="n">
+        <v>1587513600</v>
+      </c>
+      <c r="B2957" t="inlineStr">
+        <is>
+          <t>2020-04-22</t>
+        </is>
+      </c>
+      <c r="C2957" t="inlineStr">
+        <is>
+          <t>0086</t>
+        </is>
+      </c>
+      <c r="D2957" t="inlineStr">
+        <is>
+          <t>YGL</t>
+        </is>
+      </c>
+      <c r="E2957" t="n">
+        <v>0.095</v>
+      </c>
+      <c r="F2957" t="n">
+        <v>0.095</v>
+      </c>
+      <c r="G2957" t="n">
+        <v>0.095</v>
+      </c>
+      <c r="H2957" t="n">
+        <v>0.095</v>
+      </c>
+      <c r="I2957" t="n">
+        <v>70000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0086.xlsx
+++ b/data/0086.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2957"/>
+  <dimension ref="A1:I2960"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -104207,6 +104207,111 @@
         <v>70000</v>
       </c>
     </row>
+    <row r="2958">
+      <c r="A2958" t="n">
+        <v>1587600000</v>
+      </c>
+      <c r="B2958" t="inlineStr">
+        <is>
+          <t>2020-04-23</t>
+        </is>
+      </c>
+      <c r="C2958" t="inlineStr">
+        <is>
+          <t>0086</t>
+        </is>
+      </c>
+      <c r="D2958" t="inlineStr">
+        <is>
+          <t>YGL</t>
+        </is>
+      </c>
+      <c r="E2958" t="n">
+        <v>0.095</v>
+      </c>
+      <c r="F2958" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="G2958" t="n">
+        <v>0.095</v>
+      </c>
+      <c r="H2958" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="I2958" t="n">
+        <v>80000</v>
+      </c>
+    </row>
+    <row r="2959">
+      <c r="A2959" t="n">
+        <v>1587686400</v>
+      </c>
+      <c r="B2959" t="inlineStr">
+        <is>
+          <t>2020-04-24</t>
+        </is>
+      </c>
+      <c r="C2959" t="inlineStr">
+        <is>
+          <t>0086</t>
+        </is>
+      </c>
+      <c r="D2959" t="inlineStr">
+        <is>
+          <t>YGL</t>
+        </is>
+      </c>
+      <c r="E2959" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F2959" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="G2959" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="H2959" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="I2959" t="n">
+        <v>65000</v>
+      </c>
+    </row>
+    <row r="2960">
+      <c r="A2960" t="n">
+        <v>1587945600</v>
+      </c>
+      <c r="B2960" t="inlineStr">
+        <is>
+          <t>2020-04-27</t>
+        </is>
+      </c>
+      <c r="C2960" t="inlineStr">
+        <is>
+          <t>0086</t>
+        </is>
+      </c>
+      <c r="D2960" t="inlineStr">
+        <is>
+          <t>YGL</t>
+        </is>
+      </c>
+      <c r="E2960" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F2960" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="G2960" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="H2960" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="I2960" t="n">
+        <v>12200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0086.xlsx
+++ b/data/0086.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2960"/>
+  <dimension ref="A1:I2961"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -104312,6 +104312,41 @@
         <v>12200</v>
       </c>
     </row>
+    <row r="2961">
+      <c r="A2961" t="n">
+        <v>1588032000</v>
+      </c>
+      <c r="B2961" t="inlineStr">
+        <is>
+          <t>2020-04-28</t>
+        </is>
+      </c>
+      <c r="C2961" t="inlineStr">
+        <is>
+          <t>0086</t>
+        </is>
+      </c>
+      <c r="D2961" t="inlineStr">
+        <is>
+          <t>YGL</t>
+        </is>
+      </c>
+      <c r="E2961" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="F2961" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="G2961" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="H2961" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="I2961" t="n">
+        <v>62500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0086.xlsx
+++ b/data/0086.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2961"/>
+  <dimension ref="A1:I2962"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -104347,6 +104347,41 @@
         <v>62500</v>
       </c>
     </row>
+    <row r="2962">
+      <c r="A2962" t="n">
+        <v>1588118400</v>
+      </c>
+      <c r="B2962" t="inlineStr">
+        <is>
+          <t>2020-04-29</t>
+        </is>
+      </c>
+      <c r="C2962" t="inlineStr">
+        <is>
+          <t>0086</t>
+        </is>
+      </c>
+      <c r="D2962" t="inlineStr">
+        <is>
+          <t>YGL</t>
+        </is>
+      </c>
+      <c r="E2962" t="n">
+        <v>0.105</v>
+      </c>
+      <c r="F2962" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="G2962" t="n">
+        <v>0.105</v>
+      </c>
+      <c r="H2962" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="I2962" t="n">
+        <v>60000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0086.xlsx
+++ b/data/0086.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2962"/>
+  <dimension ref="A1:I2965"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -104382,6 +104382,113 @@
         <v>60000</v>
       </c>
     </row>
+    <row r="2963">
+      <c r="A2963" t="n">
+        <v>1588204800</v>
+      </c>
+      <c r="B2963" t="inlineStr">
+        <is>
+          <t>2020-04-30</t>
+        </is>
+      </c>
+      <c r="C2963" t="inlineStr">
+        <is>
+          <t>0086</t>
+        </is>
+      </c>
+      <c r="D2963" t="inlineStr">
+        <is>
+          <t>YGL</t>
+        </is>
+      </c>
+      <c r="E2963" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="F2963" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="G2963" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="H2963" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="I2963" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="2964">
+      <c r="A2964" t="n">
+        <v>1588550400</v>
+      </c>
+      <c r="B2964" t="inlineStr">
+        <is>
+          <t>2020-05-04</t>
+        </is>
+      </c>
+      <c r="C2964" t="inlineStr">
+        <is>
+          <t>0086</t>
+        </is>
+      </c>
+      <c r="D2964" t="inlineStr">
+        <is>
+          <t>YGL</t>
+        </is>
+      </c>
+      <c r="E2964" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="F2964" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="G2964" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="H2964" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="I2964" t="n">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="2965">
+      <c r="A2965" t="n">
+        <v>1588636800</v>
+      </c>
+      <c r="B2965" t="inlineStr">
+        <is>
+          <t>2020-05-05</t>
+        </is>
+      </c>
+      <c r="C2965" t="inlineStr">
+        <is>
+          <t>0086</t>
+        </is>
+      </c>
+      <c r="D2965" t="inlineStr">
+        <is>
+          <t>YGL</t>
+        </is>
+      </c>
+      <c r="E2965" t="n">
+        <v>0.105</v>
+      </c>
+      <c r="F2965" t="n">
+        <v>0.115</v>
+      </c>
+      <c r="G2965" t="n">
+        <v>0.105</v>
+      </c>
+      <c r="H2965" t="n">
+        <v>0.115</v>
+      </c>
+      <c r="I2965" t="n">
+        <v>52800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
